--- a/dumps/Stocks/DIXON TECHNO (INDIA).xlsx
+++ b/dumps/Stocks/DIXON TECHNO (INDIA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46048</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,15 +590,21 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>10266.25</v>
+        <v>11645</v>
       </c>
       <c r="F5" t="n">
-        <v>10266.25</v>
+        <v>11727.59</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70.97</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -607,7 +613,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46044</v>
+        <v>46048</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -623,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>10591.6</v>
+        <v>10266.25</v>
       </c>
       <c r="F6" t="n">
-        <v>10591.6</v>
+        <v>10266.25</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -640,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -656,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>11239.07</v>
+        <v>10591.6</v>
       </c>
       <c r="F7" t="n">
-        <v>11239.07</v>
+        <v>10591.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -689,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>11858.48</v>
+        <v>11239.07</v>
       </c>
       <c r="F8" t="n">
-        <v>11858.48</v>
+        <v>11239.07</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -706,7 +712,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -722,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>12037.65</v>
+        <v>11858.48</v>
       </c>
       <c r="F9" t="n">
-        <v>12037.65</v>
+        <v>11858.48</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -739,7 +745,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -755,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>12251.17</v>
+        <v>12037.65</v>
       </c>
       <c r="F10" t="n">
-        <v>12251.17</v>
+        <v>12037.65</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -772,7 +778,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46023</v>
+        <v>46027</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -788,17 +794,50 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
+        <v>12251.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12251.17</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>12135.38</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>12135.38</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="J11">
+      <c r="J12">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/DIXON TECHNO (INDIA).xlsx
+++ b/dumps/Stocks/DIXON TECHNO (INDIA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46063</v>
+        <v>46049</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,21 +590,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>11645</v>
+        <v>10194</v>
       </c>
       <c r="F5" t="n">
-        <v>11727.59</v>
+        <v>10244.97</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>11.62</v>
+          <t>CN#252611030591</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>70.97</v>
+        <v>50.97</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -613,7 +610,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -629,15 +626,18 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>10266.25</v>
+        <v>10517</v>
       </c>
       <c r="F6" t="n">
-        <v>10266.25</v>
+        <v>10569.59</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252610906344</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>52.59</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46044</v>
+        <v>46038</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -662,15 +662,18 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>10591.6</v>
+        <v>11160</v>
       </c>
       <c r="F7" t="n">
-        <v>10591.6</v>
+        <v>11215.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252610644483</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>55.8</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -679,7 +682,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46038</v>
+        <v>46034</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -695,15 +698,18 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>11239.07</v>
+        <v>11775</v>
       </c>
       <c r="F8" t="n">
-        <v>11239.07</v>
+        <v>11833.88</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252610469431</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>58.88</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -712,7 +718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46034</v>
+        <v>46030</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -728,15 +734,18 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>11858.48</v>
+        <v>11953</v>
       </c>
       <c r="F9" t="n">
-        <v>11858.48</v>
+        <v>12012.77</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252610347614</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>59.77</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -745,7 +754,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46030</v>
+        <v>46027</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -761,15 +770,18 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>12037.65</v>
+        <v>12165</v>
       </c>
       <c r="F10" t="n">
-        <v>12037.65</v>
+        <v>12225.83</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252610159828</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>60.83</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -778,7 +790,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46027</v>
+        <v>46023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -794,15 +806,18 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>12251.17</v>
+        <v>12050</v>
       </c>
       <c r="F11" t="n">
-        <v>12251.17</v>
+        <v>12110.25</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252610036219</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>60.25</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -811,33 +826,270 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11645</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11727.59</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10266.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10266.25</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J13">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10591.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10591.6</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J14">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11239.07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11239.07</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J15">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11858.48</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11858.48</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J16">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12037.65</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12037.65</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J17">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12251.17</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12251.17</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="J18">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>46023</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
         <v>12135.38</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F19" t="n">
         <v>12135.38</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="J12">
+      <c r="J19">
         <f>Index!$C$2</f>
         <v/>
       </c>
